--- a/biology/Zoologie/Colibri_à_ventre_noir/Colibri_à_ventre_noir.xlsx
+++ b/biology/Zoologie/Colibri_à_ventre_noir/Colibri_à_ventre_noir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colibri_%C3%A0_ventre_noir</t>
+          <t>Colibri_à_ventre_noir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eupherusa nigriventris
 Le Colibri à ventre noir (Eupherusa nigriventris) est une espèce de colibris de la sous-famille des Trochilinae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colibri_%C3%A0_ventre_noir</t>
+          <t>Colibri_à_ventre_noir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau mesure environ 8 cm de longueur. Il présente un dimorphisme sexuel. Les deux sexes ont le dessus vert métallique. Le mâle a la face et le dessous noirs, une plage rousse sur chaque aile et la queue blanche à l'exception des rectrices médianes. La femelle a le dessous gris. Elle ressemble à celle du Colibri à épaulettes mais présente davantage de blanc à la queue et des ailes sans roux apparent[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau mesure environ 8 cm de longueur. Il présente un dimorphisme sexuel. Les deux sexes ont le dessus vert métallique. Le mâle a la face et le dessous noirs, une plage rousse sur chaque aile et la queue blanche à l'exception des rectrices médianes. La femelle a le dessous gris. Elle ressemble à celle du Colibri à épaulettes mais présente davantage de blanc à la queue et des ailes sans roux apparent.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colibri_%C3%A0_ventre_noir</t>
+          <t>Colibri_à_ventre_noir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit dans la cordillère de Talamanca.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Colibri_%C3%A0_ventre_noir</t>
+          <t>Colibri_à_ventre_noir</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau se reproduit dans les forêts humides entre 900  et   2 000 m mais fréquente parfois des zones plus basses.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Colibri_%C3%A0_ventre_noir</t>
+          <t>Colibri_à_ventre_noir</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mâle utilise essentiellement la canopée et la femelle des strates inférieures.
 </t>
